--- a/심영섭/엑셀데이터_TO_DB데이터변환작업/INPUTOUTPUT/PCINPUT.xlsx
+++ b/심영섭/엑셀데이터_TO_DB데이터변환작업/INPUTOUTPUT/PCINPUT.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A43B65-A057-44B4-A6C2-4B3545992C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\GitHub\-ERP-System\심영섭\엑셀데이터_TO_DB데이터변환작업\INPUTOUTPUT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF5E34-3CCB-470C-B021-EB16687A3F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -492,7 +495,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/mm"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,7 +516,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -518,7 +524,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -542,7 +548,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -567,6 +573,13 @@
       <name val="Malgun Gothic Semilight"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -640,7 +653,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +677,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -683,7 +696,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -982,2281 +995,2166 @@
   <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123:D128"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="45" style="13" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5">
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="13">
         <v>43922</v>
       </c>
       <c r="D2">
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="13">
         <v>43952</v>
       </c>
       <c r="D3">
         <v>780</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="13">
         <v>43983</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
         <v>44013</v>
       </c>
       <c r="D5">
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="13">
         <v>44044</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="13">
         <v>43586</v>
       </c>
       <c r="D7">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="13">
         <v>44470</v>
       </c>
       <c r="D8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="13">
         <v>43466</v>
       </c>
       <c r="D9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="13">
         <v>43497</v>
       </c>
       <c r="D10">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="13">
         <v>43525</v>
       </c>
       <c r="D11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="13">
         <v>43556</v>
       </c>
       <c r="D12">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="13">
         <v>43586</v>
       </c>
       <c r="D13">
         <v>980</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="13">
         <v>43617</v>
       </c>
       <c r="D14">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="13">
         <v>43647</v>
       </c>
       <c r="D15">
         <v>980</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="13">
         <v>43497</v>
       </c>
       <c r="D16">
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="13">
         <v>43525</v>
       </c>
       <c r="D17">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="13">
         <v>43556</v>
       </c>
       <c r="D18">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="13">
         <v>43586</v>
       </c>
       <c r="D19">
         <v>980</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="13">
         <v>43617</v>
       </c>
       <c r="D20">
         <v>780</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="13">
         <v>43647</v>
       </c>
       <c r="D21">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="13">
         <v>43678</v>
       </c>
       <c r="D22">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="13">
         <v>43709</v>
       </c>
       <c r="D23">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="13">
         <v>43739</v>
       </c>
       <c r="D24">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="13">
         <v>43770</v>
       </c>
       <c r="D25">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="13">
         <v>43800</v>
       </c>
       <c r="D26">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="13">
         <v>43831</v>
       </c>
       <c r="D27">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="13">
         <v>43862</v>
       </c>
       <c r="D28">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="13">
         <v>43891</v>
       </c>
       <c r="D29">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="13">
         <v>43922</v>
       </c>
       <c r="D30">
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="13">
         <v>43952</v>
       </c>
       <c r="D31">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="13">
         <v>43983</v>
       </c>
       <c r="D32">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="13">
         <v>44013</v>
       </c>
       <c r="D33">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="13">
         <v>44044</v>
       </c>
       <c r="D34">
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="13">
         <v>44075</v>
       </c>
       <c r="D35">
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="13">
         <v>44105</v>
       </c>
       <c r="D36">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="40.5">
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="13">
         <v>44136</v>
       </c>
       <c r="D37">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="13">
         <v>44166</v>
       </c>
       <c r="D38">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="13">
         <v>44197</v>
       </c>
       <c r="D39">
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="13">
         <v>44228</v>
       </c>
       <c r="D40">
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="13">
         <v>44256</v>
       </c>
       <c r="D41">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="13">
         <v>44287</v>
       </c>
       <c r="D42">
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="13">
         <v>44317</v>
       </c>
       <c r="D43">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="13">
         <v>44013</v>
       </c>
       <c r="D44">
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="13">
         <v>44044</v>
       </c>
       <c r="D45">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="13">
         <v>44075</v>
       </c>
       <c r="D46">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="13">
         <v>44105</v>
       </c>
       <c r="D47">
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="13">
         <v>44136</v>
       </c>
       <c r="D48">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="13">
         <v>44166</v>
       </c>
       <c r="D49">
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="13">
         <v>44197</v>
       </c>
       <c r="D50">
         <v>900</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="13">
         <v>44197</v>
       </c>
       <c r="D51">
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="13">
         <v>44409</v>
       </c>
       <c r="D52">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="13">
         <v>44440</v>
       </c>
       <c r="D53">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="13">
         <v>44470</v>
       </c>
       <c r="D54">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="13">
         <v>43466</v>
       </c>
       <c r="D55">
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="13">
         <v>43497</v>
       </c>
       <c r="D56">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="13">
         <v>43525</v>
       </c>
       <c r="D57">
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="13">
         <v>43556</v>
       </c>
       <c r="D58">
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="13">
         <v>43586</v>
       </c>
       <c r="D59">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="13">
         <v>44470</v>
       </c>
       <c r="D60">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="13">
         <v>43466</v>
       </c>
       <c r="D61">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="13">
         <v>43497</v>
       </c>
       <c r="D62">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="13">
         <v>43525</v>
       </c>
       <c r="D63">
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="13">
         <v>43556</v>
       </c>
       <c r="D64">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="13">
         <v>43586</v>
       </c>
       <c r="D65">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="13">
         <v>43617</v>
       </c>
       <c r="D66">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="13">
         <v>43647</v>
       </c>
       <c r="D67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="13">
         <v>43678</v>
       </c>
       <c r="D68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="13">
         <v>43709</v>
       </c>
       <c r="D69">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="33">
+    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="13">
         <v>43922</v>
       </c>
       <c r="D70">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="33">
+    <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="13">
         <v>43952</v>
       </c>
       <c r="D71">
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="33">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="13">
         <v>43983</v>
       </c>
       <c r="D72">
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="33">
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="13">
         <v>44013</v>
       </c>
       <c r="D73">
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="33">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="13">
         <v>44044</v>
       </c>
       <c r="D74">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="13">
         <v>43586</v>
       </c>
       <c r="D75">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="33">
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="13">
         <v>44470</v>
       </c>
       <c r="D76">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="33">
+    <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="13">
         <v>43466</v>
       </c>
       <c r="D77">
         <v>900</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="33">
+    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="13">
         <v>43497</v>
       </c>
       <c r="D78">
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="33">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="13">
         <v>43525</v>
       </c>
       <c r="D79">
         <v>780</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="33">
+    <row r="80" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="13">
         <v>43556</v>
       </c>
       <c r="D80">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="33">
+    <row r="81" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="13">
         <v>43586</v>
       </c>
       <c r="D81">
         <v>780</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="33">
+    <row r="82" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="13">
         <v>43617</v>
       </c>
       <c r="D82">
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="33">
+    <row r="83" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="13">
         <v>43647</v>
       </c>
       <c r="D83">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="33">
+    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="13">
         <v>43497</v>
       </c>
       <c r="D84">
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="33">
+    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="13">
         <v>43525</v>
       </c>
       <c r="D85">
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="13">
         <v>43556</v>
       </c>
       <c r="D86">
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="33">
+    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="13">
         <v>43586</v>
       </c>
       <c r="D87">
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="33">
+    <row r="88" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="13">
         <v>43617</v>
       </c>
       <c r="D88">
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="13">
         <v>43647</v>
       </c>
       <c r="D89">
         <v>980</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="33">
+    <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="13">
         <v>43678</v>
       </c>
       <c r="D90">
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="33">
+    <row r="91" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="13">
         <v>43709</v>
       </c>
       <c r="D91">
         <v>980</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="13">
         <v>43739</v>
       </c>
       <c r="D92">
         <v>780</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="33">
+    <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="13">
         <v>43770</v>
       </c>
       <c r="D93">
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="33">
+    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="13">
         <v>43800</v>
       </c>
       <c r="D94">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="33">
+    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="13">
         <v>43831</v>
       </c>
       <c r="D95">
         <v>980</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="13">
         <v>43862</v>
       </c>
       <c r="D96">
         <v>780</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="33">
+    <row r="97" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="13">
         <v>43891</v>
       </c>
       <c r="D97">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="33">
+    <row r="98" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="13">
         <v>43922</v>
       </c>
       <c r="D98">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="33">
+    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="13">
         <v>43952</v>
       </c>
       <c r="D99">
         <v>900</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="33">
+    <row r="100" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="13">
         <v>43983</v>
       </c>
       <c r="D100">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="13">
         <v>44013</v>
       </c>
       <c r="D101">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="33">
+    <row r="102" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="13">
         <v>44044</v>
       </c>
       <c r="D102">
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="13">
         <v>44075</v>
       </c>
       <c r="D103">
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="33">
+    <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="13">
         <v>44105</v>
       </c>
       <c r="D104">
         <v>780</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="13">
         <v>44136</v>
       </c>
       <c r="D105">
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="33">
+    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="13">
         <v>44166</v>
       </c>
       <c r="D106">
         <v>900</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="13">
         <v>44197</v>
       </c>
       <c r="D107">
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="33">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="13">
         <v>44228</v>
       </c>
       <c r="D108">
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="33">
+    <row r="109" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="13">
         <v>44256</v>
       </c>
       <c r="D109">
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="33">
+    <row r="110" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="13">
         <v>44287</v>
       </c>
       <c r="D110">
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="13">
         <v>44317</v>
       </c>
       <c r="D111">
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="33">
+    <row r="112" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="13">
         <v>44013</v>
       </c>
       <c r="D112">
         <v>980</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="33">
+    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="13">
         <v>44044</v>
       </c>
       <c r="D113">
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="13">
         <v>44075</v>
       </c>
       <c r="D114">
         <v>980</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="33">
+    <row r="115" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="13">
         <v>44105</v>
       </c>
       <c r="D115">
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="13">
         <v>44136</v>
       </c>
       <c r="D116">
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="33">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="13">
         <v>44166</v>
       </c>
       <c r="D117">
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="33">
+    <row r="118" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="13">
         <v>44197</v>
       </c>
       <c r="D118">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="13">
         <v>44197</v>
       </c>
       <c r="D119">
         <v>900</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="13">
         <v>44409</v>
       </c>
       <c r="D120">
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="13">
         <v>44440</v>
       </c>
       <c r="D121">
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="13">
         <v>44470</v>
       </c>
       <c r="D122">
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="33">
+    <row r="123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="13">
         <v>43466</v>
       </c>
       <c r="D123">
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="33">
+    <row r="124" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="13">
         <v>43497</v>
       </c>
       <c r="D124">
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="33">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="13">
         <v>43525</v>
       </c>
       <c r="D125">
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="13">
         <v>43556</v>
       </c>
       <c r="D126">
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="33">
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="13">
         <v>43586</v>
       </c>
       <c r="D127">
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="33">
+    <row r="128" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="13">
         <v>44470</v>
       </c>
       <c r="D128">
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="7"/>
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="7"/>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="7"/>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="7"/>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="8"/>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="7"/>
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="7"/>
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="7"/>
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="2:3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="2:3">
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="2:3">
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
-      <c r="C139" s="5"/>
-    </row>
-    <row r="140" spans="2:3">
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
-      <c r="C140" s="5"/>
-    </row>
-    <row r="141" spans="2:3">
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
-      <c r="C141" s="5"/>
-    </row>
-    <row r="142" spans="2:3">
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="2:3">
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
-      <c r="C143" s="5"/>
-    </row>
-    <row r="144" spans="2:3">
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
-      <c r="C144" s="5"/>
-    </row>
-    <row r="145" spans="2:3">
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
-      <c r="C145" s="5"/>
-    </row>
-    <row r="146" spans="2:3">
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" spans="2:3">
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="2:3">
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="2:3">
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
-      <c r="C149" s="5"/>
-    </row>
-    <row r="150" spans="2:3">
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="2:3">
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
-      <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="2:3">
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="2:3">
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="2:3">
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
-      <c r="C154" s="5"/>
-    </row>
-    <row r="155" spans="2:3">
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="2:3">
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
-      <c r="C156" s="5"/>
-    </row>
-    <row r="157" spans="2:3">
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
-      <c r="C157" s="5"/>
-    </row>
-    <row r="158" spans="2:3">
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
-      <c r="C158" s="5"/>
-    </row>
-    <row r="159" spans="2:3">
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="2:3">
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="2:3">
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="2:3">
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
-      <c r="C162" s="5"/>
-    </row>
-    <row r="163" spans="2:3">
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
-      <c r="C163" s="5"/>
-    </row>
-    <row r="164" spans="2:3">
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="2:3">
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="2:3">
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
-      <c r="C166" s="5"/>
-    </row>
-    <row r="167" spans="2:3">
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
-      <c r="C167" s="5"/>
-    </row>
-    <row r="168" spans="2:3">
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
-      <c r="C168" s="5"/>
-    </row>
-    <row r="169" spans="2:3">
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
-      <c r="C169" s="5"/>
-    </row>
-    <row r="170" spans="2:3">
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
-      <c r="C170" s="5"/>
-    </row>
-    <row r="171" spans="2:3">
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
-      <c r="C171" s="5"/>
-    </row>
-    <row r="172" spans="2:3">
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
-      <c r="C172" s="5"/>
-    </row>
-    <row r="173" spans="2:3">
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
-      <c r="C173" s="5"/>
-    </row>
-    <row r="174" spans="2:3">
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
-      <c r="C174" s="5"/>
-    </row>
-    <row r="175" spans="2:3">
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="2:3">
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
-      <c r="C176" s="5"/>
-    </row>
-    <row r="177" spans="2:3">
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
-      <c r="C177" s="5"/>
-    </row>
-    <row r="178" spans="2:3">
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
-      <c r="C178" s="5"/>
-    </row>
-    <row r="179" spans="2:3">
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
-      <c r="C179" s="5"/>
-    </row>
-    <row r="180" spans="2:3">
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
-      <c r="C180" s="5"/>
-    </row>
-    <row r="181" spans="2:3">
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
-      <c r="C181" s="5"/>
-    </row>
-    <row r="182" spans="2:3">
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
-      <c r="C182" s="5"/>
-    </row>
-    <row r="183" spans="2:3">
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
-      <c r="C183" s="5"/>
-    </row>
-    <row r="184" spans="2:3">
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
-      <c r="C184" s="5"/>
-    </row>
-    <row r="185" spans="2:3">
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
-      <c r="C185" s="5"/>
-    </row>
-    <row r="186" spans="2:3">
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
-      <c r="C186" s="5"/>
-    </row>
-    <row r="187" spans="2:3">
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
-      <c r="C187" s="5"/>
-    </row>
-    <row r="188" spans="2:3">
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="4"/>
-      <c r="C188" s="5"/>
-    </row>
-    <row r="189" spans="2:3">
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
-      <c r="C189" s="5"/>
-    </row>
-    <row r="190" spans="2:3">
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
-      <c r="C190" s="5"/>
-    </row>
-    <row r="191" spans="2:3">
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
-      <c r="C191" s="5"/>
-    </row>
-    <row r="192" spans="2:3">
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
-      <c r="C192" s="5"/>
-    </row>
-    <row r="193" spans="2:3">
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
-      <c r="C193" s="5"/>
-    </row>
-    <row r="194" spans="2:3">
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
-      <c r="C194" s="5"/>
-    </row>
-    <row r="195" spans="2:3">
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
-      <c r="C195" s="5"/>
-    </row>
-    <row r="196" spans="2:3">
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
-      <c r="C196" s="5"/>
-    </row>
-    <row r="197" spans="2:3">
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
-      <c r="C197" s="5"/>
-    </row>
-    <row r="198" spans="2:3">
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
-      <c r="C198" s="5"/>
-    </row>
-    <row r="199" spans="2:3">
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
-      <c r="C199" s="5"/>
-    </row>
-    <row r="200" spans="2:3">
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
-      <c r="C200" s="5"/>
-    </row>
-    <row r="201" spans="2:3">
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
-      <c r="C201" s="5"/>
-    </row>
-    <row r="202" spans="2:3">
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
-      <c r="C202" s="5"/>
-    </row>
-    <row r="203" spans="2:3">
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
-      <c r="C203" s="5"/>
-    </row>
-    <row r="204" spans="2:3">
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
-      <c r="C204" s="5"/>
-    </row>
-    <row r="205" spans="2:3">
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
-      <c r="C205" s="5"/>
-    </row>
-    <row r="206" spans="2:3">
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
-      <c r="C206" s="5"/>
-    </row>
-    <row r="207" spans="2:3">
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
-      <c r="C207" s="5"/>
-    </row>
-    <row r="208" spans="2:3">
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
-      <c r="C208" s="5"/>
-    </row>
-    <row r="209" spans="2:3">
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
-      <c r="C209" s="5"/>
-    </row>
-    <row r="210" spans="2:3">
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
-      <c r="C210" s="5"/>
-    </row>
-    <row r="211" spans="2:3">
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
-      <c r="C211" s="5"/>
-    </row>
-    <row r="212" spans="2:3">
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
-      <c r="C212" s="5"/>
-    </row>
-    <row r="213" spans="2:3">
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
-      <c r="C213" s="5"/>
-    </row>
-    <row r="214" spans="2:3">
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
-      <c r="C214" s="5"/>
-    </row>
-    <row r="215" spans="2:3">
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
-      <c r="C215" s="5"/>
-    </row>
-    <row r="216" spans="2:3">
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
-      <c r="C216" s="5"/>
-    </row>
-    <row r="217" spans="2:3">
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
-      <c r="C217" s="5"/>
-    </row>
-    <row r="218" spans="2:3">
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
-      <c r="C218" s="5"/>
-    </row>
-    <row r="219" spans="2:3">
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
-      <c r="C219" s="5"/>
-    </row>
-    <row r="220" spans="2:3">
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
-      <c r="C220" s="5"/>
-    </row>
-    <row r="221" spans="2:3">
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
-      <c r="C221" s="5"/>
-    </row>
-    <row r="222" spans="2:3">
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
-      <c r="C222" s="5"/>
-    </row>
-    <row r="223" spans="2:3">
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
-      <c r="C223" s="5"/>
-    </row>
-    <row r="224" spans="2:3">
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
-      <c r="C224" s="5"/>
-    </row>
-    <row r="225" spans="2:3">
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
-      <c r="C225" s="5"/>
-    </row>
-    <row r="226" spans="2:3">
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
-      <c r="C226" s="5"/>
-    </row>
-    <row r="227" spans="2:3">
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
-      <c r="C227" s="5"/>
-    </row>
-    <row r="228" spans="2:3">
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
-      <c r="C228" s="5"/>
-    </row>
-    <row r="229" spans="2:3">
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
-      <c r="C229" s="5"/>
-    </row>
-    <row r="230" spans="2:3">
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
-      <c r="C230" s="5"/>
-    </row>
-    <row r="231" spans="2:3">
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
-      <c r="C231" s="5"/>
-    </row>
-    <row r="232" spans="2:3">
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" spans="2:3">
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
-      <c r="C233" s="5"/>
-    </row>
-    <row r="234" spans="2:3">
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
-      <c r="C234" s="5"/>
-    </row>
-    <row r="235" spans="2:3">
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
-      <c r="C235" s="5"/>
-    </row>
-    <row r="236" spans="2:3">
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" spans="2:3">
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
-      <c r="C237" s="5"/>
-    </row>
-    <row r="238" spans="2:3">
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
-      <c r="C238" s="5"/>
-    </row>
-    <row r="239" spans="2:3">
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
-      <c r="C239" s="5"/>
-    </row>
-    <row r="240" spans="2:3">
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
-      <c r="C240" s="5"/>
-    </row>
-    <row r="241" spans="2:3">
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
-      <c r="C241" s="5"/>
-    </row>
-    <row r="242" spans="2:3">
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
-      <c r="C242" s="5"/>
-    </row>
-    <row r="243" spans="2:3">
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
-      <c r="C243" s="5"/>
-    </row>
-    <row r="244" spans="2:3">
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
-      <c r="C244" s="5"/>
-    </row>
-    <row r="245" spans="2:3">
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
-      <c r="C245" s="5"/>
-    </row>
-    <row r="246" spans="2:3">
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
-      <c r="C246" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>